--- a/SW_version_release_test.xlsx
+++ b/SW_version_release_test.xlsx
@@ -1548,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1760,7 +1760,1106 @@
       <c r="C30" s="9" t="n"/>
       <c r="D30" s="10" t="n"/>
     </row>
-    <row r="31" ht="14.5" customHeight="1" s="1"/>
+    <row r="31" ht="14.5" customHeight="1" s="1">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Shang Qiu</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>b6b266f</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-12 14:37</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>zhanghao</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>7db0f3c</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-12 05:22</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Alan Li</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>5663d33</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:43</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>695148f</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-11 12:59</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>2ac600b</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-11 12:55</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Alan Li</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>84bde5c</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-10 17:34</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Zhang Hao</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>7cac59e</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-09 09:38</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Zhang Hao</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>639875f</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-09 09:38</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>7dd785e</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-07 15:10</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>df8a8f1</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:36</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>e2b4203</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:36</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>153fb62</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-06 09:39</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>c4a4946</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-05 17:05</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Bo Qin</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>52d331e</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 14:55</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Qin Bo</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>4d4ca5d</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 14:46</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>d9beb10</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:46</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>b35e728</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:41</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>51ceb31</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:39</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Michael Wu</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>40fba6a</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:22</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>92381de</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:20</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>ec061f0</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:11</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>ff81600</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 11:06</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Michael Wu</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>b08aae9</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 10:43</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>fc87abe</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 10:39</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>1908cea</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 10:37</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>cd5ff17</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-04 10:09</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Kevin Xiong</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>c874d7b</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 15:01</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>12f4d10</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 14:55</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>3dd1783</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 14:41</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>5a157e0</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 14:15</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Michael Wu</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>a2abda6</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 14:10</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>0c6ec51</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 13:49</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>0d9b291</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-03 11:11</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>755f22b</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-02 22:45</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>97e1735</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-02 15:29</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>2fd5fec</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-02 14:55</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Kevin Xiong</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>c88cff4</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-02 11:33</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>976cf26</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>2019-12-02 11:28</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>afa4c70</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-30 22:32</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>58641ea</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-30 20:41</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>ae75950</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-30 17:54</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Michael Wu</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>d0c25bf</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-30 13:50</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>699a1fa</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-30 12:25</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>242c0fd</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-30 12:07</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>79cd849</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-29 16:13</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>michaelw</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>6916811</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-28 14:40</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>d574647</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-27 18:45</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>9549c49</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-27 18:39</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>2d07099</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-27 18:36</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>kevin.xiong</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>1d1da49</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>2019-11-27 18:32</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>%s</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,7 +4202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="A1:E5"/>
@@ -3115,110 +4214,440 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>kui li</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>501ac6e</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>2021-07-30 14:28</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>爱立信面试题</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>kui li</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>38189a6</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>2021-07-26 22:28</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>new update</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>kui li</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>722d38d</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>2021-07-25 19:10</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>python3.8 not need init</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>kui li</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>67eefc9</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>2021-07-25 18:59</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>add selenium script</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>sunflowerwaiting</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>20140c6</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>2021-06-29 15:20</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Initial commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>501ac6e</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-30 14:28</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>爱立信面试题</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>38189a6</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-26 22:28</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>new update</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>722d38d</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-25 19:10</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>python3.8 not need init</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>67eefc9</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-25 18:59</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>add selenium script</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>sunflowerwaiting</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>20140c6</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2021-06-29 15:20</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Initial commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>501ac6e</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-30 14:28</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>爱立信面试题</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>38189a6</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-26 22:28</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>new update</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>722d38d</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-25 19:10</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>python3.8 not need init</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>67eefc9</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2021-07-25 18:59</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>add selenium script</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>sunflowerwaiting</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>20140c6</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2021-06-29 15:20</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Initial commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501ac6e</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-07-30 14:28</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>爱立信面试题</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>38189a6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-07-26 22:28</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>new update</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>722d38d</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-07-25 19:10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>python3.8 not need init</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kui li</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>67eefc9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-07-25 18:59</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>add selenium script</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sunflowerwaiting</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20140c6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-06-29 15:20</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Initial commit</t>
         </is>
